--- a/DelAfleveringer/Tidsplan/JakobViggoHansen_Tidsplan.xlsx
+++ b/DelAfleveringer/Tidsplan/JakobViggoHansen_Tidsplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT_REPOS\cph\CPH_Afgangsprojekt_2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT_REPOS\cph\CPH_Afgangsprojekt_2022\DelAfleveringer\Tidsplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{513C43A3-E191-4D41-A3AF-9E484391D3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419611C4-4056-42F2-888C-7649653C5B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02F92D01-C038-49D4-BE7B-60C227F9A448}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{02F92D01-C038-49D4-BE7B-60C227F9A448}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -301,46 +301,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -352,6 +326,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -372,7 +364,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -668,48 +660,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED578C2-E661-4C63-8942-D4B183062B04}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="10" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -735,19 +727,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -757,7 +749,7 @@
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -767,19 +759,19 @@
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
     </row>
-    <row r="9" spans="1:8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -805,32 +797,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -856,19 +848,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -878,19 +870,19 @@
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
     </row>
-    <row r="17" spans="1:8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -916,41 +908,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="1:8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -976,35 +968,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
@@ -1015,7 +1007,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -1041,65 +1033,65 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-    </row>
-    <row r="32" spans="1:8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-    </row>
-    <row r="33" spans="1:8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
@@ -1125,55 +1117,55 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-    </row>
-    <row r="37" spans="1:8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-    </row>
-    <row r="38" spans="1:8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>12</v>
       </c>
@@ -1199,31 +1191,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="1:8" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -1233,19 +1225,18 @@
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
     </row>
-    <row r="42" spans="1:8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A42" s="10" t="s">
+    <row r="42" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="12"/>
-    </row>
-    <row r="43" spans="1:8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -1271,53 +1262,53 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-    </row>
-    <row r="47" spans="1:8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A47" s="14" t="s">
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+    </row>
+    <row r="47" spans="1:8" ht="42" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
-    </row>
-    <row r="48" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
@@ -1343,19 +1334,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-    </row>
-    <row r="50" spans="1:8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1364,7 +1355,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:8" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1373,19 +1364,19 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A52" s="7" t="s">
+    <row r="52" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="9"/>
-    </row>
-    <row r="53" spans="1:8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
@@ -1411,8 +1402,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B54" s="18" t="s">
+    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B54" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C54" s="1"/>
@@ -1421,9 +1412,15 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A7:H8"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A24:H25"/>
     <mergeCell ref="B37:H37"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
@@ -1440,13 +1437,6 @@
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A7:H8"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A24:H25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
